--- a/finalstats.xlsx
+++ b/finalstats.xlsx
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Izsak Fierro &amp; Piero Francesco Abad Nassi</t>
+          <t>Izsak Fierro &amp; Piero Francesco Abadnassi</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -43040,7 +43040,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Mick Lee &amp; Piero Francesco Abad Nassi</t>
+          <t>Mick Lee &amp; Piero Francesco Abadnassi</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -49956,7 +49956,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Andres Berriel &amp; Piero Francesco Abad Nassi</t>
+          <t>Andres Berriel &amp; Piero Francesco Abadnassi</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -54136,7 +54136,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Heber Valenzuela Valenzuela &amp; Piero Francesco Abad Nassi</t>
+          <t>Heber Valenzuela Valenzuela &amp; Piero Francesco Abadnassi</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -55504,7 +55504,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Diogo Ramirez &amp; Isaac Solares Isaac Solares</t>
+          <t>Diogo Ramirez &amp; Isaac Solares</t>
         </is>
       </c>
       <c r="C725" t="n">
